--- a/factor_returns_value.xlsx
+++ b/factor_returns_value.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://resbank-my.sharepoint.com/personal/cathy_hlungwani_resbank_co_za/Documents/Documents/1. MEng - Data Science/1. Project_2025/Data/factor_timing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{1DBCBD2D-6CE5-4B5A-ACF8-BCCB8F87C319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9076DF00-CC7A-4F87-B4E7-C42B1BD8852C}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{F4A31755-6332-4BAF-8749-3A46814CC2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{567C84E2-0762-45DB-AE4F-6246B9CBBC1A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{42539B9D-FFB3-4363-820C-7DD5946BE656}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E5BFB8AF-3CAB-4906-9760-CDC3EF5C9139}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2 (2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Value</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Return</t>
   </si>
 </sst>
 </file>
@@ -105,10 +105,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,11 +423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E823570A-F43A-48A2-BFA3-403260CC5B15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F2BDE6-CC25-48AC-8DF1-A2CA9315A470}">
   <dimension ref="A1:B243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -441,1946 +437,1943 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B2" s="2">
-        <v>3.1600000000000003E-2</v>
+        <v>2.7627789077707021E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B3" s="2">
-        <v>1.0200000000000001E-2</v>
+        <v>-1.5855635729127737E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B4" s="2">
-        <v>1.3899999999999999E-2</v>
+        <v>-3.7214397020255419E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B5" s="2">
-        <v>6.7999999999999996E-3</v>
+        <v>-2.0648492809268948E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B6" s="2">
-        <v>3.3999999999999998E-3</v>
+        <v>-1.6706765596683493E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B7" s="2">
-        <v>6.7000000000000002E-3</v>
+        <v>-2.4384256516272185E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B8" s="2">
-        <v>9.7000000000000003E-3</v>
+        <v>-4.4005554594220175E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B9" s="2">
-        <v>5.8900000000000001E-2</v>
+        <v>4.3796264327395917E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B10" s="2">
-        <v>7.5499999999999998E-2</v>
+        <v>8.2739128375364235E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B11" s="2">
-        <v>5.4699999999999999E-2</v>
+        <v>-5.59321533474193E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B12" s="2">
-        <v>7.6300000000000007E-2</v>
+        <v>4.9300347184313198E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B13" s="2">
-        <v>3.5999999999999997E-2</v>
+        <v>1.4762176707877828E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B14" s="2">
-        <v>1.09E-2</v>
+        <v>-4.5044601371806658E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B15" s="2">
-        <v>5.2600000000000001E-2</v>
+        <v>8.2655873906906652E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B16" s="2">
-        <v>-3.73E-2</v>
+        <v>1.8420433445181295E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B17" s="2">
-        <v>-3.6700000000000003E-2</v>
+        <v>-8.5856225298317157E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B18" s="2">
-        <v>5.0700000000000002E-2</v>
+        <v>3.9259771263783882E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B19" s="2">
-        <v>3.9899999999999998E-2</v>
+        <v>-5.6121319968054584E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B20" s="2">
-        <v>8.7999999999999995E-2</v>
+        <v>6.5211864606293357E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B21" s="2">
-        <v>1.35E-2</v>
+        <v>-6.0906270256113615E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B22" s="2">
-        <v>8.2299999999999998E-2</v>
+        <v>0.12321522016677444</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B23" s="2">
-        <v>-3.4000000000000002E-2</v>
+        <v>-4.6833594899460484E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B24" s="2">
-        <v>1.83E-2</v>
+        <v>-6.1535864944820551E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B25" s="2">
-        <v>8.9599999999999999E-2</v>
+        <v>-2.013361749353404E-4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B26" s="2">
-        <v>8.8300000000000003E-2</v>
+        <v>8.8173183456200066E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B27" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>-8.7544910685099286E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B28" s="2">
-        <v>6.4399999999999999E-2</v>
+        <v>5.4189760652661345E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B29" s="2">
-        <v>1.52E-2</v>
+        <v>9.6443688332059185E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B30" s="2">
-        <v>-7.0000000000000007E-2</v>
+        <v>-2.2686454269363221E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B31" s="2">
-        <v>-2.1899999999999999E-2</v>
+        <v>1.2457509602840311E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B32" s="2">
-        <v>2.8E-3</v>
+        <v>-5.5265387163058732E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B33" s="2">
-        <v>4.6699999999999998E-2</v>
+        <v>3.4412343127715017E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B34" s="2">
-        <v>1.6799999999999999E-2</v>
+        <v>-5.9494934534488619E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B35" s="2">
-        <v>8.0399999999999999E-2</v>
+        <v>2.8907063094862018E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B36" s="2">
-        <v>2.5100000000000001E-2</v>
+        <v>-3.1710459735251773E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B37" s="2">
-        <v>6.8699999999999997E-2</v>
+        <v>1.2255237883465497E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B38" s="2">
-        <v>4.3400000000000001E-2</v>
+        <v>1.5607021045962899E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B39" s="2">
-        <v>1.6E-2</v>
+        <v>-2.9097662876170105E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B40" s="2">
-        <v>4.2500000000000003E-2</v>
+        <v>-6.3303264193375064E-3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B41" s="2">
-        <v>6.5299999999999997E-2</v>
+        <v>5.9001518307059797E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B42" s="2">
-        <v>-1.24E-2</v>
+        <v>1.7724743043649571E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B43" s="2">
-        <v>-1.9599999999999999E-2</v>
+        <v>-1.9972582278942053E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B44" s="2">
-        <v>2.3E-3</v>
+        <v>-1.3353328189381175E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B45" s="2">
-        <v>1.7999999999999999E-2</v>
+        <v>5.3061321256946403E-3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B46" s="2">
-        <v>2.8E-3</v>
+        <v>-4.1262627884215863E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B47" s="2">
-        <v>7.1400000000000005E-2</v>
+        <v>0.13408326817185134</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B48" s="2">
-        <v>-6.6000000000000003E-2</v>
+        <v>-4.5387907643476E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B49" s="2">
-        <v>-2.86E-2</v>
+        <v>7.9657840058880547E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B50" s="2">
-        <v>-0.11509999999999999</v>
+        <v>-0.15907166638761328</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B51" s="2">
-        <v>8.8999999999999996E-2</v>
+        <v>0.15176605292829359</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B52" s="2">
-        <v>-4.24E-2</v>
+        <v>-6.4153388177762061E-2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B53" s="2">
-        <v>3.0099999999999998E-2</v>
+        <v>5.8339557969657174E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B54" s="2">
-        <v>-1.9099999999999999E-2</v>
+        <v>0.10527595057487715</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B55" s="2">
-        <v>-7.7200000000000005E-2</v>
+        <v>-9.6080278995903323E-2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B56" s="2">
-        <v>3.0499999999999999E-2</v>
+        <v>-8.8687925331008555E-2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B57" s="2">
-        <v>3.8199999999999998E-2</v>
+        <v>8.3769972410566829E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B58" s="2">
-        <v>-7.1199999999999999E-2</v>
+        <v>5.6125898367054283E-4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B59" s="2">
-        <v>-0.1055</v>
+        <v>-0.13158803631169846</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B60" s="2">
-        <v>1.24E-2</v>
+        <v>-4.2331631083828203E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B61" s="2">
-        <v>5.0999999999999997E-2</v>
+        <v>8.9790773538879209E-2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B62" s="2">
-        <v>-0.06</v>
+        <v>7.1466832006700121E-2</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B63" s="2">
-        <v>-0.1187</v>
+        <v>-0.20355321772391666</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B64" s="2">
-        <v>0.1089</v>
+        <v>5.1342078835864724E-2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B65" s="2">
-        <v>5.4699999999999999E-2</v>
+        <v>-6.4191045324322404E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B66" s="2">
-        <v>8.7900000000000006E-2</v>
+        <v>8.1880352690024027E-2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B67" s="2">
-        <v>4.4999999999999997E-3</v>
+        <v>-0.10936072300815269</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B68" s="2">
-        <v>9.6000000000000002E-2</v>
+        <v>2.4491044201576662E-2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B69" s="2">
-        <v>6.54E-2</v>
+        <v>3.1006082472485375E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B70" s="2">
-        <v>9.9000000000000008E-3</v>
+        <v>-3.5696406658237922E-2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B71" s="2">
-        <v>3.9600000000000003E-2</v>
+        <v>6.0100815303247845E-2</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B72" s="2">
-        <v>-1.5699999999999999E-2</v>
+        <v>-3.6548130497244147E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B73" s="2">
-        <v>4.1099999999999998E-2</v>
+        <v>5.8075102390703903E-2</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B74" s="2">
-        <v>-1.95E-2</v>
+        <v>-4.7393841439730799E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B75" s="2">
-        <v>2.12E-2</v>
+        <v>-5.7246679592825922E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B76" s="2">
-        <v>6.7299999999999999E-2</v>
+        <v>6.2853129880475977E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B77" s="2">
-        <v>6.3E-3</v>
+        <v>4.6087804443258884E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B78" s="2">
-        <v>-4.0300000000000002E-2</v>
+        <v>-1.0255414558511533E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B79" s="2">
-        <v>-3.4099999999999998E-2</v>
+        <v>-0.12379517525718176</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B80" s="2">
-        <v>9.0999999999999998E-2</v>
+        <v>0.10666983574082167</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B81" s="2">
-        <v>-2.29E-2</v>
+        <v>-0.1077610839915224</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B82" s="2">
-        <v>7.7600000000000002E-2</v>
+        <v>7.3630995380092434E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B83" s="2">
-        <v>1.41E-2</v>
+        <v>2.9541080452336388E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B84" s="2">
-        <v>-6.0000000000000001E-3</v>
+        <v>-6.5245503929154958E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B85" s="2">
-        <v>5.79E-2</v>
+        <v>0.10144256243445982</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B86" s="2">
-        <v>-3.7199999999999997E-2</v>
+        <v>-3.9657662547509243E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B87" s="2">
-        <v>6.7999999999999996E-3</v>
+        <v>5.6477495491469298E-4</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B88" s="2">
-        <v>1.95E-2</v>
+        <v>-8.73536896422622E-3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B89" s="2">
-        <v>2.64E-2</v>
+        <v>2.5827531399355452E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B90" s="2">
-        <v>1E-4</v>
+        <v>3.1468198655076884E-3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B91" s="2">
-        <v>-1.11E-2</v>
+        <v>-7.9934521222341237E-3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B92" s="2">
-        <v>-7.3000000000000001E-3</v>
+        <v>-4.0511807061007765E-3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B93" s="2">
-        <v>-1.0699999999999999E-2</v>
+        <v>4.244805133482743E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B94" s="2">
-        <v>-3.7600000000000001E-2</v>
+        <v>-0.10315834018753578</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B95" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>5.4704567215942745E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B96" s="2">
-        <v>2.1899999999999999E-2</v>
+        <v>1.4653270681701747E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B97" s="2">
-        <v>4.8999999999999998E-3</v>
+        <v>-7.3852993625879604E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B98" s="2">
-        <v>6.0100000000000001E-2</v>
+        <v>1.8476719393090146E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B99" s="2">
-        <v>2.6800000000000001E-2</v>
+        <v>2.9263396710863643E-2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B100" s="2">
-        <v>-1.1999999999999999E-3</v>
+        <v>-2.5168120093628232E-2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B101" s="2">
-        <v>2.5399999999999999E-2</v>
+        <v>5.6309508278313714E-2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B102" s="2">
-        <v>-2.9100000000000001E-2</v>
+        <v>-5.1615734972975336E-2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B103" s="2">
-        <v>2.0500000000000001E-2</v>
+        <v>-2.5363312139723426E-3</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B104" s="2">
-        <v>2.47E-2</v>
+        <v>4.3253358406105669E-3</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B105" s="2">
-        <v>2.76E-2</v>
+        <v>7.9914495237827232E-3</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B106" s="2">
-        <v>1.9099999999999999E-2</v>
+        <v>-2.3924129195346477E-2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B107" s="2">
-        <v>3.5900000000000001E-2</v>
+        <v>2.1759949950129087E-2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B108" s="2">
-        <v>1.11E-2</v>
+        <v>-2.3020695131954483E-2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B109" s="2">
-        <v>4.4400000000000002E-2</v>
+        <v>2.3023126302849528E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B110" s="2">
-        <v>2.0299999999999999E-2</v>
+        <v>2.1664692789200246E-2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B111" s="2">
-        <v>-6.6E-3</v>
+        <v>-1.1899652746939937E-2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B112" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>3.3905078415706225E-2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B113" s="2">
-        <v>-2.1700000000000001E-2</v>
+        <v>-7.587473124611821E-2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B114" s="2">
-        <v>5.91E-2</v>
+        <v>0.12290683740578368</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B115" s="2">
-        <v>-5.5899999999999998E-2</v>
+        <v>-6.9443587013935937E-2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B116" s="2">
-        <v>2.9499999999999998E-2</v>
+        <v>9.1139904574972785E-3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B117" s="2">
-        <v>2.35E-2</v>
+        <v>-3.3781628964232979E-2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B118" s="2">
-        <v>5.4100000000000002E-2</v>
+        <v>1.5695466262328095E-2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B119" s="2">
-        <v>0.04</v>
+        <v>6.1750894932710576E-2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B120" s="2">
-        <v>-2.0400000000000001E-2</v>
+        <v>-4.3841784535988526E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B121" s="2">
-        <v>2.7799999999999998E-2</v>
+        <v>4.6874304116874876E-2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B122" s="2">
-        <v>-1.1900000000000001E-2</v>
+        <v>-8.4669154335253238E-2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B123" s="2">
-        <v>5.1299999999999998E-2</v>
+        <v>-5.8093563191641273E-4</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B124" s="2">
-        <v>4.9599999999999998E-2</v>
+        <v>1.9881221906628666E-2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B125" s="2">
-        <v>1.3599999999999999E-2</v>
+        <v>-4.0526804413376638E-4</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B126" s="2">
-        <v>1.67E-2</v>
+        <v>-7.3018769750672341E-3</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B127" s="2">
-        <v>2.93E-2</v>
+        <v>9.5329127785441781E-3</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B128" s="2">
-        <v>1.77E-2</v>
+        <v>-2.9593926767492729E-3</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B129" s="2">
-        <v>1.66E-2</v>
+        <v>3.7751910142236667E-2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B130" s="2">
-        <v>-3.1699999999999999E-2</v>
+        <v>-4.1550734926110167E-2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B131" s="2">
-        <v>1.7299999999999999E-2</v>
+        <v>2.6650764424177797E-2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B132" s="2">
-        <v>1.6000000000000001E-3</v>
+        <v>1.1565908063761898E-2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B133" s="2">
-        <v>-5.4000000000000003E-3</v>
+        <v>-3.3941420537201283E-2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B134" s="2">
-        <v>3.6700000000000003E-2</v>
+        <v>7.2847294003253182E-4</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B135" s="2">
-        <v>3.8899999999999997E-2</v>
+        <v>3.0579225537858412E-2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B136" s="2">
-        <v>-4.8999999999999998E-3</v>
+        <v>-6.5734646197234792E-2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B137" s="2">
-        <v>6.6500000000000004E-2</v>
+        <v>0.1166559882939231</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B138" s="2">
-        <v>-7.2599999999999998E-2</v>
+        <v>-4.4926448187005641E-2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B139" s="2">
-        <v>-3.7000000000000002E-3</v>
+        <v>3.8352492425680063E-2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B140" s="2">
-        <v>-3.32E-2</v>
+        <v>2.9240290924177126E-2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B141" s="2">
-        <v>-2.86E-2</v>
+        <v>8.6817636191998115E-3</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B142" s="2">
-        <v>-3.9800000000000002E-2</v>
+        <v>-7.4689689427204886E-2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B143" s="2">
-        <v>6.4000000000000001E-2</v>
+        <v>0.1302662058847891</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B144" s="2">
-        <v>-6.13E-2</v>
+        <v>2.3273248186791107E-2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B145" s="2">
-        <v>-5.4100000000000002E-2</v>
+        <v>-2.7589446473621493E-2</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B146" s="2">
-        <v>-1.6000000000000001E-3</v>
+        <v>-4.1577911157333003E-2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B147" s="2">
-        <v>2.1700000000000001E-2</v>
+        <v>-0.10402921353475292</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B148" s="2">
-        <v>0.1095</v>
+        <v>4.8445211409879008E-2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B149" s="2">
-        <v>3.3300000000000003E-2</v>
+        <v>3.2698123430747961E-2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B150" s="2">
-        <v>-1.5800000000000002E-2</v>
+        <v>5.1315692249755962E-3</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B151" s="2">
-        <v>-2.3999999999999998E-3</v>
+        <v>-3.8101865889923037E-2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B152" s="2">
-        <v>2.64E-2</v>
+        <v>4.3179229150565934E-2</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B153" s="2">
-        <v>-2.0400000000000001E-2</v>
+        <v>-4.5617777656383973E-2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B154" s="2">
-        <v>2.98E-2</v>
+        <v>-5.41462483176125E-3</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B155" s="2">
-        <v>-2.8999999999999998E-3</v>
+        <v>-2.0324116424606076E-2</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B156" s="2">
-        <v>-5.5999999999999999E-3</v>
+        <v>-5.0866136175004129E-2</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B157" s="2">
-        <v>3.44E-2</v>
+        <v>7.472982563812014E-3</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B158" s="2">
-        <v>1.61E-2</v>
+        <v>4.5777025012407546E-2</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B159" s="2">
-        <v>-2.29E-2</v>
+        <v>-3.7023935086857196E-2</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B160" s="2">
-        <v>2.24E-2</v>
+        <v>-1.3629493866857523E-2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B161" s="2">
-        <v>2.9100000000000001E-2</v>
+        <v>5.4948014628247277E-2</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B162" s="2">
-        <v>-1.9699999999999999E-2</v>
+        <v>3.0027472636344421E-2</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B163" s="2">
-        <v>-3.78E-2</v>
+        <v>-9.8313810465117335E-2</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B164" s="2">
-        <v>6.25E-2</v>
+        <v>1.9196139761780584E-2</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B165" s="2">
-        <v>3.3799999999999997E-2</v>
+        <v>5.0637393316128376E-2</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B166" s="2">
-        <v>-2.46E-2</v>
+        <v>-6.4641751780014967E-2</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B167" s="2">
-        <v>4.5499999999999999E-2</v>
+        <v>1.5311416951962586E-2</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B168" s="2">
-        <v>3.3500000000000002E-2</v>
+        <v>4.0800694821265582E-2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B169" s="2">
-        <v>-1.6199999999999999E-2</v>
+        <v>-4.9127881366908266E-3</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B170" s="2">
-        <v>1.4E-2</v>
+        <v>2.8958831944564389E-3</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B171" s="2">
-        <v>-7.3000000000000001E-3</v>
+        <v>3.0298352092088421E-2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B172" s="2">
-        <v>-3.8199999999999998E-2</v>
+        <v>-8.471342430351203E-2</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B173" s="2">
-        <v>4.5699999999999998E-2</v>
+        <v>8.1767541925500065E-2</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B174" s="2">
-        <v>-4.1200000000000001E-2</v>
+        <v>-4.6960121713865544E-2</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B175" s="2">
-        <v>-6.1999999999999998E-3</v>
+        <v>-6.6369701325603714E-3</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B176" s="2">
-        <v>1.32E-2</v>
+        <v>2.5668200589132995E-2</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B177" s="2">
-        <v>-1.12E-2</v>
+        <v>1.9947943944886859E-2</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B178" s="2">
-        <v>-7.7000000000000002E-3</v>
+        <v>-1.1286095603565416E-2</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B179" s="2">
-        <v>-3.1E-2</v>
+        <v>-2.8689681773060416E-2</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B180" s="2">
-        <v>-1.7399999999999999E-2</v>
+        <v>-5.6597064410723319E-2</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B181" s="2">
-        <v>3.9699999999999999E-2</v>
+        <v>-2.1530273190794924E-2</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B182" s="2">
-        <v>4.7399999999999998E-2</v>
+        <v>2.3617054138463267E-2</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B183" s="2">
-        <v>4.1000000000000003E-3</v>
+        <v>8.2013230006117155E-4</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B184" s="2">
-        <v>1.15E-2</v>
+        <v>-4.9592215202916679E-2</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B185" s="2">
-        <v>4.7800000000000002E-2</v>
+        <v>8.3325717521067211E-2</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B186" s="2">
-        <v>-3.3300000000000003E-2</v>
+        <v>-6.6208393302785828E-2</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B187" s="2">
-        <v>1.8700000000000001E-2</v>
+        <v>7.5640633986491013E-2</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B188" s="2">
-        <v>-4.6800000000000001E-2</v>
+        <v>1.5343409116013396E-2</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B189" s="2">
-        <v>-4.6600000000000003E-2</v>
+        <v>-3.9393179003691881E-2</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B190" s="2">
-        <v>1.24E-2</v>
+        <v>-1.9080098155280778E-2</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B191" s="2">
-        <v>2.58E-2</v>
+        <v>4.169575910412282E-2</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B192" s="2">
-        <v>-5.3E-3</v>
+        <v>-2.6795471837751106E-2</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B193" s="2">
-        <v>1.21E-2</v>
+        <v>7.3801866496778001E-2</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B194" s="2">
-        <v>-4.2900000000000001E-2</v>
+        <v>8.0306912162248056E-2</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B195" s="2">
-        <v>-0.106</v>
+        <v>0.15923291590427491</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B196" s="2">
-        <v>-0.25469999999999998</v>
+        <v>-0.32675386878833534</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B197" s="2">
-        <v>0.15989999999999999</v>
+        <v>0.14456592586010586</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B198" s="2">
-        <v>-2.8E-3</v>
+        <v>-7.2637000911847771E-2</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B199" s="2">
-        <v>6.8500000000000005E-2</v>
+        <v>5.8812524849779058E-2</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B200" s="2">
-        <v>1.0999999999999999E-2</v>
+        <v>6.4673294141000204E-2</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B201" s="2">
-        <v>-3.4599999999999999E-2</v>
+        <v>-1.8297403408279012E-2</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B202" s="2">
-        <v>9.4999999999999998E-3</v>
+        <v>5.0935708894721765E-2</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B203" s="2">
-        <v>-6.1600000000000002E-2</v>
+        <v>-0.20693651507826238</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B204" s="2">
-        <v>0.16450000000000001</v>
+        <v>5.4808396403227322E-2</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B205" s="2">
-        <v>4.9000000000000002E-2</v>
+        <v>1.5700511458539346E-2</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B206" s="2">
-        <v>3.9E-2</v>
+        <v>-3.0445383531687353E-2</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B207" s="2">
-        <v>6.1199999999999997E-2</v>
+        <v>1.942782323013148E-2</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B208" s="2">
-        <v>3.39E-2</v>
+        <v>1.7742470210261985E-2</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B209" s="2">
-        <v>1.9400000000000001E-2</v>
+        <v>-2.7593380343418072E-2</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B210" s="2">
-        <v>3.5700000000000003E-2</v>
+        <v>4.2555994578506673E-2</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B211" s="2">
-        <v>-1.3299999999999999E-2</v>
+        <v>-5.149299208329905E-2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B212" s="2">
-        <v>2.1299999999999999E-2</v>
+        <v>-1.2192954602975536E-2</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B213" s="2">
-        <v>3.8100000000000002E-2</v>
+        <v>3.1923256139773981E-2</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B214" s="2">
-        <v>-1.17E-2</v>
+        <v>-6.1026280053885662E-2</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B215" s="2">
-        <v>4.6899999999999997E-2</v>
+        <v>3.2187959053673221E-2</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B216" s="2">
-        <v>-5.3E-3</v>
+        <v>-4.3991171784299343E-2</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B217" s="2">
-        <v>5.3400000000000003E-2</v>
+        <v>-1.6887486129879559E-3</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B218" s="2">
-        <v>5.0200000000000002E-2</v>
+        <v>-2.8673672731049482E-2</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B219" s="2">
-        <v>5.2600000000000001E-2</v>
+        <v>3.7492922756410252E-4</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B220" s="2">
-        <v>2.6499999999999999E-2</v>
+        <v>4.754435491990705E-2</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B221" s="2">
-        <v>-3.2599999999999997E-2</v>
+        <v>-5.0367958745954011E-2</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B222" s="2">
-        <v>1.09E-2</v>
+        <v>0.11623965539478287</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B223" s="2">
-        <v>-0.1108</v>
+        <v>-0.10509948075639686</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B224" s="2">
-        <v>3.0300000000000001E-2</v>
+        <v>5.3247118052134446E-2</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B225" s="2">
-        <v>-2.4899999999999999E-2</v>
+        <v>1.0002306528874572E-3</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B226" s="2">
-        <v>-1.43E-2</v>
+        <v>-0.11718186439559519</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B227" s="2">
-        <v>7.8799999999999995E-2</v>
+        <v>-3.5329778071933937E-2</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B228" s="2">
-        <v>8.8599999999999998E-2</v>
+        <v>0.13723441556217175</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B229" s="2">
-        <v>-4.1000000000000002E-2</v>
+        <v>-8.0055117679087906E-2</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B230" s="2">
-        <v>5.1999999999999998E-2</v>
+        <v>0.11502157241329447</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B231" s="2">
-        <v>-4.5400000000000003E-2</v>
+        <v>3.1525630400421778E-2</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B232" s="2">
-        <v>-5.4699999999999999E-2</v>
+        <v>-5.5917890941111326E-2</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B233" s="2">
-        <v>3.6400000000000002E-2</v>
+        <v>0.10932272101307183</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B234" s="2">
-        <v>-7.4999999999999997E-2</v>
+        <v>-9.0723197372416964E-2</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B235" s="2">
-        <v>3.2599999999999997E-2</v>
+        <v>-1.052627993451849E-2</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B236" s="2">
-        <v>4.8899999999999999E-2</v>
+        <v>7.555448693155209E-2</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B237" s="2">
-        <v>-3.4299999999999997E-2</v>
+        <v>-5.097269344551969E-2</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B238" s="2">
-        <v>3.0999999999999999E-3</v>
+        <v>2.6258458926001316E-2</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="B239" s="2">
-        <v>-5.6000000000000001E-2</v>
+        <v>-8.8888975821773464E-2</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="B240" s="2">
-        <v>5.96E-2</v>
+        <v>3.9746323266582895E-2</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="B241" s="2">
-        <v>4.36E-2</v>
+        <v>7.5863103587928027E-2</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="B242" s="2">
-        <v>-4.6899999999999997E-2</v>
+        <v>2.2064335262014345E-2</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" s="1">
-        <v>45323</v>
-      </c>
-      <c r="B243" s="2">
-        <v>-5.0500000000000003E-2</v>
+      <c r="B243">
+        <v>-2.2681286666709988E-2</v>
       </c>
     </row>
   </sheetData>
